--- a/Datasets/UCD_EngArch_Path_StructEngArch_ME_Modules.xlsx
+++ b/Datasets/UCD_EngArch_Path_StructEngArch_ME_Modules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanh\Documents\GitHub\ChatGPTAssessment\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C956230-424E-4B09-809E-F32057E2EDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE660846-F36E-4CC1-8110-92CE14354CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{C7146B4A-4439-46E0-B60E-DB05B9DBCCC1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7146B4A-4439-46E0-B60E-DB05B9DBCCC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="74">
   <si>
     <t>CHEN10040</t>
   </si>
@@ -228,9 +228,6 @@
   </si>
   <si>
     <t>CVEN40780</t>
-  </si>
-  <si>
-    <t>M</t>
   </si>
   <si>
     <t>NAS2</t>
@@ -620,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470AD8BE-D0F1-4863-8083-BF0D6224CD04}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38:G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1426,7 +1423,7 @@
         <v>3</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" ref="F30:F37" si="0">F19</f>
+        <f t="shared" ref="F31:F37" si="0">F19</f>
         <v>NAS1</v>
       </c>
       <c r="G31">
@@ -1611,11 +1608,11 @@
       <c r="D38">
         <v>4</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
         <v>64</v>
-      </c>
-      <c r="F38" t="s">
-        <v>65</v>
       </c>
       <c r="G38">
         <v>5</v>
@@ -1637,11 +1634,11 @@
       <c r="D39">
         <v>4</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39" t="s">
         <v>64</v>
-      </c>
-      <c r="F39" t="s">
-        <v>65</v>
       </c>
       <c r="G39">
         <v>5</v>
@@ -1663,11 +1660,11 @@
       <c r="D40">
         <v>4</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40" t="s">
         <v>64</v>
-      </c>
-      <c r="F40" t="s">
-        <v>65</v>
       </c>
       <c r="G40">
         <v>5</v>
@@ -1689,11 +1686,11 @@
       <c r="D41">
         <v>4</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41" t="s">
         <v>64</v>
-      </c>
-      <c r="F41" t="s">
-        <v>65</v>
       </c>
       <c r="G41">
         <v>5</v>
@@ -1715,11 +1712,11 @@
       <c r="D42">
         <v>4</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42" t="s">
         <v>64</v>
-      </c>
-      <c r="F42" t="s">
-        <v>65</v>
       </c>
       <c r="G42">
         <v>5</v>
@@ -1741,11 +1738,11 @@
       <c r="D43">
         <v>4</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43" t="s">
         <v>64</v>
-      </c>
-      <c r="F43" t="s">
-        <v>65</v>
       </c>
       <c r="G43">
         <v>5</v>
@@ -1756,7 +1753,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
         <v>23</v>
@@ -1767,11 +1764,11 @@
       <c r="D44">
         <v>4</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44" t="s">
         <v>64</v>
-      </c>
-      <c r="F44" t="s">
-        <v>65</v>
       </c>
       <c r="G44">
         <v>30</v>
@@ -1782,7 +1779,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
         <v>23</v>
@@ -1793,11 +1790,11 @@
       <c r="D45">
         <v>4</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45" t="s">
         <v>64</v>
-      </c>
-      <c r="F45" t="s">
-        <v>65</v>
       </c>
       <c r="G45">
         <v>20</v>
@@ -1808,7 +1805,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
         <v>23</v>
@@ -1819,11 +1816,11 @@
       <c r="D46">
         <v>4</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46" t="s">
         <v>64</v>
-      </c>
-      <c r="F46" t="s">
-        <v>65</v>
       </c>
       <c r="G46">
         <v>10</v>
@@ -1834,7 +1831,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
         <v>23</v>
@@ -1845,11 +1842,11 @@
       <c r="D47">
         <v>4</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47" t="s">
         <v>64</v>
-      </c>
-      <c r="F47" t="s">
-        <v>65</v>
       </c>
       <c r="G47">
         <v>5</v>
@@ -1860,7 +1857,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B48" t="s">
         <v>22</v>
@@ -1871,11 +1868,11 @@
       <c r="D48">
         <v>4</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48">
+        <v>5</v>
+      </c>
+      <c r="F48" t="s">
         <v>64</v>
-      </c>
-      <c r="F48" t="s">
-        <v>65</v>
       </c>
       <c r="G48">
         <v>5</v>
@@ -1886,7 +1883,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
         <v>23</v>
@@ -1897,11 +1894,11 @@
       <c r="D49">
         <v>4</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="F49" t="s">
         <v>64</v>
-      </c>
-      <c r="F49" t="s">
-        <v>65</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -1912,7 +1909,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
         <v>23</v>
@@ -1923,11 +1920,11 @@
       <c r="D50">
         <v>4</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="F50" t="s">
         <v>64</v>
-      </c>
-      <c r="F50" t="s">
-        <v>65</v>
       </c>
       <c r="G50">
         <v>5</v>
@@ -1938,7 +1935,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
         <v>23</v>
@@ -1949,11 +1946,11 @@
       <c r="D51">
         <v>4</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="F51" t="s">
         <v>64</v>
-      </c>
-      <c r="F51" t="s">
-        <v>65</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -1964,7 +1961,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
         <v>23</v>
@@ -1975,11 +1972,11 @@
       <c r="D52">
         <v>4</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="F52" t="s">
         <v>64</v>
-      </c>
-      <c r="F52" t="s">
-        <v>65</v>
       </c>
       <c r="G52">
         <v>5</v>

--- a/Datasets/UCD_EngArch_Path_StructEngArch_ME_Modules.xlsx
+++ b/Datasets/UCD_EngArch_Path_StructEngArch_ME_Modules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanh\Documents\GitHub\ChatGPTAssessment\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE660846-F36E-4CC1-8110-92CE14354CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3835E8E6-C142-46D5-BE19-1EAC3290BB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7146B4A-4439-46E0-B60E-DB05B9DBCCC1}"/>
   </bookViews>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470AD8BE-D0F1-4863-8083-BF0D6224CD04}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38:G44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
